--- a/chapter_4_modeling/data/summary.xlsx
+++ b/chapter_4_modeling/data/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Model Name</t>
   </si>
@@ -28,6 +28,12 @@
     <t>Modeltype</t>
   </si>
   <si>
+    <t>schizophrenia_controls_sc_w2v</t>
+  </si>
+  <si>
+    <t>gaussian-nb</t>
+  </si>
+  <si>
     <t>schizophrenia_controls_sc_text</t>
   </si>
   <si>
@@ -41,9 +47,6 @@
   </si>
   <si>
     <t>schizophrenia_controls_sc_audio</t>
-  </si>
-  <si>
-    <t>gaussian-nb</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,10 +403,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.7766666666666666</v>
+        <v>0.8666666666666668</v>
       </c>
       <c r="C2">
-        <v>0.03431876713662335</v>
+        <v>0.19436506316151</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -414,10 +417,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.62</v>
+        <v>0.7766666666666666</v>
       </c>
       <c r="C3">
-        <v>0.1122497216032182</v>
+        <v>0.03431876713662335</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -428,13 +431,27 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.7866666666666667</v>
+        <v>0.62</v>
       </c>
       <c r="C4">
-        <v>0.1305543735171076</v>
+        <v>0.1122497216032182</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.7866666666666667</v>
+      </c>
+      <c r="C5">
+        <v>0.1305543735171076</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
